--- a/biology/Médecine/Adolfo_Rincón_de_Arellano/Adolfo_Rincón_de_Arellano.xlsx
+++ b/biology/Médecine/Adolfo_Rincón_de_Arellano/Adolfo_Rincón_de_Arellano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adolfo_Rinc%C3%B3n_de_Arellano</t>
+          <t>Adolfo_Rincón_de_Arellano</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolfo Rincón de Arellano García, né à Valence (Espagne) le 11 octobre 1910 et mort dans la même ville le 17 mars 2006, est un médecin et homme politique phalangiste, président de la députation de Valence (1943-1949) et maire de Valence (1958-1969).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adolfo_Rinc%C3%B3n_de_Arellano</t>
+          <t>Adolfo_Rincón_de_Arellano</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il naît à Valence en 1910. Son père est un important médecin de la ville et militant d'Izquierda Republicana[1],[2].
-Il suit des études secondaires à l'Institut Lluís Vives (es) de Valence[3].
-Dans sa jeunesse, il milite dans des groupes étudiants conservateurs[4], notamment Juventud Monárquica[1].
-Il étudie la médecine et se spécialise en cardiologie à Rome en 1935-1936[5]. Il est médecin de guerre durant la guerre civile espagnole (1936-1939)[5].
-Phalangiste de la première heure[6], il est membre fondateur de la Phalange espagnole à Valence en 1933, dont il est nommé chef régional par José Antonio Primo de Rivera[5],[7]. À partir de 1939, il est chef provincial de FET y de las JONS[5].
-Entre 1943 et 1949, il préside la députation provinciale de Valence, qu'il représente aux Cortes franquistes[5].
-En 1958, il est désigné maire de Valence après la démission de Tomás Trénor Azcárraga (es) en conséquence de la grande inondation de 1957[5],[6].
-En tant que maire, il est une figure du développement de la ville, à l'origine de plusieurs initiatives importantes et est l'un des principaux promoteurs du Plan Sur, le grand chantier de déviation du lit du Turia qui fait suite à l'inondation[5],[8],[7].
-Dans un contexte de début de crise du régime franquiste, il démissionne le 8 novembre 1969 en raison de désaccords avec les technocrates de l'Opus Dei, peu après la constitution du douzième gouvernement de l'État espagnol dominé par ces derniers[5],[9].
-Il est de nouveau procurateur aux Cortes par désignation de Franco entre 1973 et 1977[10].
-Une rue de Nàquera est nommée en son hommage[3],[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît à Valence en 1910. Son père est un important médecin de la ville et militant d'Izquierda Republicana,.
+Il suit des études secondaires à l'Institut Lluís Vives (es) de Valence.
+Dans sa jeunesse, il milite dans des groupes étudiants conservateurs, notamment Juventud Monárquica.
+Il étudie la médecine et se spécialise en cardiologie à Rome en 1935-1936. Il est médecin de guerre durant la guerre civile espagnole (1936-1939).
+Phalangiste de la première heure, il est membre fondateur de la Phalange espagnole à Valence en 1933, dont il est nommé chef régional par José Antonio Primo de Rivera,. À partir de 1939, il est chef provincial de FET y de las JONS.
+Entre 1943 et 1949, il préside la députation provinciale de Valence, qu'il représente aux Cortes franquistes.
+En 1958, il est désigné maire de Valence après la démission de Tomás Trénor Azcárraga (es) en conséquence de la grande inondation de 1957,.
+En tant que maire, il est une figure du développement de la ville, à l'origine de plusieurs initiatives importantes et est l'un des principaux promoteurs du Plan Sur, le grand chantier de déviation du lit du Turia qui fait suite à l'inondation.
+Dans un contexte de début de crise du régime franquiste, il démissionne le 8 novembre 1969 en raison de désaccords avec les technocrates de l'Opus Dei, peu après la constitution du douzième gouvernement de l'État espagnol dominé par ces derniers,.
+Il est de nouveau procurateur aux Cortes par désignation de Franco entre 1973 et 1977.
+Une rue de Nàquera est nommée en son hommage,.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adolfo_Rinc%C3%B3n_de_Arellano</t>
+          <t>Adolfo_Rincón_de_Arellano</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +566,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(es) Valencia:1959-1967, 1969[5]
-(es) Pantanos y trasvases de la Región Valenciana, 2001[5],[7]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(es) Valencia:1959-1967, 1969
+(es) Pantanos y trasvases de la Región Valenciana, 2001,</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adolfo_Rinc%C3%B3n_de_Arellano</t>
+          <t>Adolfo_Rincón_de_Arellano</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ordre impérial du Joug et des Flèches (es)[5],[7]
-Grand-croix de l'ordre d'Alphonse X le Sage[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ordre impérial du Joug et des Flèches (es),
+Grand-croix de l'ordre d'Alphonse X le Sage</t>
         </is>
       </c>
     </row>
